--- a/Data/Excel_Wide/camino_motives_wide.xlsx
+++ b/Data/Excel_Wide/camino_motives_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G225"/>
+  <dimension ref="A1:H227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Sin establecer</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
@@ -483,16 +488,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>488</v>
+        <v>976</v>
       </c>
       <c r="E2" t="n">
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G2" t="n">
-        <v>643</v>
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1286</v>
       </c>
     </row>
     <row r="3">
@@ -508,16 +516,19 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1090</v>
+        <v>2180</v>
       </c>
       <c r="E3" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F3" t="n">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="G3" t="n">
-        <v>1401</v>
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2802</v>
       </c>
     </row>
     <row r="4">
@@ -533,16 +544,19 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2219</v>
+        <v>4438</v>
       </c>
       <c r="E4" t="n">
-        <v>689</v>
+        <v>1378</v>
       </c>
       <c r="F4" t="n">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="G4" t="n">
-        <v>3105</v>
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6210</v>
       </c>
     </row>
     <row r="5">
@@ -558,16 +572,19 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>11200</v>
+        <v>22400</v>
       </c>
       <c r="E5" t="n">
-        <v>3112</v>
+        <v>6224</v>
       </c>
       <c r="F5" t="n">
-        <v>1242</v>
+        <v>2484</v>
       </c>
       <c r="G5" t="n">
-        <v>15554</v>
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>31108</v>
       </c>
     </row>
     <row r="6">
@@ -583,16 +600,19 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>12405</v>
+        <v>24810</v>
       </c>
       <c r="E6" t="n">
-        <v>3378</v>
+        <v>6756</v>
       </c>
       <c r="F6" t="n">
-        <v>1077</v>
+        <v>2154</v>
       </c>
       <c r="G6" t="n">
-        <v>16860</v>
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>33720</v>
       </c>
     </row>
     <row r="7">
@@ -608,16 +628,19 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>14379</v>
+        <v>28758</v>
       </c>
       <c r="E7" t="n">
-        <v>3952</v>
+        <v>7904</v>
       </c>
       <c r="F7" t="n">
-        <v>964</v>
+        <v>1928</v>
       </c>
       <c r="G7" t="n">
-        <v>19295</v>
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>38590</v>
       </c>
     </row>
     <row r="8">
@@ -633,16 +656,19 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>23760</v>
+        <v>47520</v>
       </c>
       <c r="E8" t="n">
-        <v>6402</v>
+        <v>12804</v>
       </c>
       <c r="F8" t="n">
-        <v>1729</v>
+        <v>3458</v>
       </c>
       <c r="G8" t="n">
-        <v>31891</v>
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>63782</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +684,19 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>35918</v>
+        <v>71836</v>
       </c>
       <c r="E9" t="n">
-        <v>7493</v>
+        <v>14986</v>
       </c>
       <c r="F9" t="n">
-        <v>2190</v>
+        <v>4380</v>
       </c>
       <c r="G9" t="n">
-        <v>45601</v>
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>91202</v>
       </c>
     </row>
     <row r="10">
@@ -683,16 +712,19 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>15958</v>
+        <v>31916</v>
       </c>
       <c r="E10" t="n">
-        <v>5428</v>
+        <v>10856</v>
       </c>
       <c r="F10" t="n">
-        <v>1366</v>
+        <v>2732</v>
       </c>
       <c r="G10" t="n">
-        <v>22752</v>
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>45504</v>
       </c>
     </row>
     <row r="11">
@@ -708,16 +740,19 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>10784</v>
+        <v>21568</v>
       </c>
       <c r="E11" t="n">
-        <v>2932</v>
+        <v>5864</v>
       </c>
       <c r="F11" t="n">
-        <v>840</v>
+        <v>1680</v>
       </c>
       <c r="G11" t="n">
-        <v>14556</v>
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>29112</v>
       </c>
     </row>
     <row r="12">
@@ -733,16 +768,19 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>3239</v>
+        <v>6478</v>
       </c>
       <c r="E12" t="n">
-        <v>957</v>
+        <v>1914</v>
       </c>
       <c r="F12" t="n">
-        <v>214</v>
+        <v>428</v>
       </c>
       <c r="G12" t="n">
-        <v>4410</v>
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8820</v>
       </c>
     </row>
     <row r="13">
@@ -758,16 +796,19 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>2819</v>
+        <v>5638</v>
       </c>
       <c r="E13" t="n">
-        <v>808</v>
+        <v>1616</v>
       </c>
       <c r="F13" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="G13" t="n">
-        <v>3802</v>
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7604</v>
       </c>
     </row>
     <row r="14">
@@ -783,16 +824,19 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>188</v>
+        <v>376</v>
       </c>
       <c r="E14" t="n">
+        <v>108</v>
+      </c>
+      <c r="F14" t="n">
         <v>54</v>
       </c>
-      <c r="F14" t="n">
-        <v>27</v>
-      </c>
       <c r="G14" t="n">
-        <v>269</v>
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>538</v>
       </c>
     </row>
     <row r="15">
@@ -808,16 +852,19 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>460</v>
+        <v>920</v>
       </c>
       <c r="E15" t="n">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G15" t="n">
-        <v>565</v>
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1130</v>
       </c>
     </row>
     <row r="16">
@@ -833,16 +880,19 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>1281</v>
+        <v>2562</v>
       </c>
       <c r="E16" t="n">
-        <v>1510</v>
+        <v>3020</v>
       </c>
       <c r="F16" t="n">
-        <v>330</v>
+        <v>660</v>
       </c>
       <c r="G16" t="n">
-        <v>3121</v>
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6242</v>
       </c>
     </row>
     <row r="17">
@@ -858,16 +908,19 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>1265</v>
+        <v>2530</v>
       </c>
       <c r="E17" t="n">
-        <v>1755</v>
+        <v>3510</v>
       </c>
       <c r="F17" t="n">
-        <v>287</v>
+        <v>574</v>
       </c>
       <c r="G17" t="n">
-        <v>3307</v>
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6614</v>
       </c>
     </row>
     <row r="18">
@@ -883,16 +936,19 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>3725</v>
+        <v>7450</v>
       </c>
       <c r="E18" t="n">
-        <v>4797</v>
+        <v>9594</v>
       </c>
       <c r="F18" t="n">
-        <v>788</v>
+        <v>1576</v>
       </c>
       <c r="G18" t="n">
-        <v>9310</v>
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>18620</v>
       </c>
     </row>
     <row r="19">
@@ -908,16 +964,19 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>5007</v>
+        <v>10014</v>
       </c>
       <c r="E19" t="n">
-        <v>6752</v>
+        <v>13504</v>
       </c>
       <c r="F19" t="n">
-        <v>860</v>
+        <v>1720</v>
       </c>
       <c r="G19" t="n">
-        <v>12619</v>
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>25238</v>
       </c>
     </row>
     <row r="20">
@@ -933,16 +992,19 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>7385</v>
+        <v>14770</v>
       </c>
       <c r="E20" t="n">
-        <v>9695</v>
+        <v>19390</v>
       </c>
       <c r="F20" t="n">
-        <v>1724</v>
+        <v>3448</v>
       </c>
       <c r="G20" t="n">
-        <v>18804</v>
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>37608</v>
       </c>
     </row>
     <row r="21">
@@ -958,16 +1020,19 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>9314</v>
+        <v>18628</v>
       </c>
       <c r="E21" t="n">
-        <v>13079</v>
+        <v>26158</v>
       </c>
       <c r="F21" t="n">
-        <v>2438</v>
+        <v>4876</v>
       </c>
       <c r="G21" t="n">
-        <v>24831</v>
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>49662</v>
       </c>
     </row>
     <row r="22">
@@ -983,16 +1048,19 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>3949</v>
+        <v>7898</v>
       </c>
       <c r="E22" t="n">
-        <v>6914</v>
+        <v>13828</v>
       </c>
       <c r="F22" t="n">
-        <v>1305</v>
+        <v>2610</v>
       </c>
       <c r="G22" t="n">
-        <v>12168</v>
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>24336</v>
       </c>
     </row>
     <row r="23">
@@ -1008,16 +1076,19 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>2309</v>
+        <v>4618</v>
       </c>
       <c r="E23" t="n">
-        <v>4030</v>
+        <v>8060</v>
       </c>
       <c r="F23" t="n">
-        <v>534</v>
+        <v>1068</v>
       </c>
       <c r="G23" t="n">
-        <v>6873</v>
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>13746</v>
       </c>
     </row>
     <row r="24">
@@ -1033,16 +1104,19 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>327</v>
+        <v>654</v>
       </c>
       <c r="E24" t="n">
-        <v>938</v>
+        <v>1876</v>
       </c>
       <c r="F24" t="n">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="G24" t="n">
-        <v>1388</v>
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2776</v>
       </c>
     </row>
     <row r="25">
@@ -1058,16 +1132,19 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>246</v>
+        <v>492</v>
       </c>
       <c r="E25" t="n">
-        <v>367</v>
+        <v>734</v>
       </c>
       <c r="F25" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="G25" t="n">
-        <v>668</v>
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1336</v>
       </c>
     </row>
     <row r="26">
@@ -1083,16 +1160,19 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="E26" t="n">
-        <v>191</v>
+        <v>382</v>
       </c>
       <c r="F26" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G26" t="n">
-        <v>324</v>
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>648</v>
       </c>
     </row>
     <row r="27">
@@ -1108,16 +1188,19 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>133</v>
+        <v>266</v>
       </c>
       <c r="E27" t="n">
-        <v>189</v>
+        <v>378</v>
       </c>
       <c r="F27" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G27" t="n">
-        <v>351</v>
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>702</v>
       </c>
     </row>
     <row r="28">
@@ -1133,16 +1216,19 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>411</v>
+        <v>822</v>
       </c>
       <c r="E28" t="n">
-        <v>594</v>
+        <v>1188</v>
       </c>
       <c r="F28" t="n">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="G28" t="n">
-        <v>1096</v>
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2192</v>
       </c>
     </row>
     <row r="29">
@@ -1158,16 +1244,19 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>3021</v>
+        <v>6042</v>
       </c>
       <c r="E29" t="n">
-        <v>3710</v>
+        <v>7420</v>
       </c>
       <c r="F29" t="n">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="G29" t="n">
-        <v>7451</v>
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>14902</v>
       </c>
     </row>
     <row r="30">
@@ -1183,16 +1272,19 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>4361</v>
+        <v>8722</v>
       </c>
       <c r="E30" t="n">
-        <v>5057</v>
+        <v>10114</v>
       </c>
       <c r="F30" t="n">
-        <v>729</v>
+        <v>1458</v>
       </c>
       <c r="G30" t="n">
-        <v>10147</v>
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>20294</v>
       </c>
     </row>
     <row r="31">
@@ -1208,16 +1300,19 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5659</v>
+        <v>11318</v>
       </c>
       <c r="E31" t="n">
-        <v>6289</v>
+        <v>12578</v>
       </c>
       <c r="F31" t="n">
-        <v>1063</v>
+        <v>2126</v>
       </c>
       <c r="G31" t="n">
-        <v>13011</v>
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>26022</v>
       </c>
     </row>
     <row r="32">
@@ -1233,16 +1328,19 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>7729</v>
+        <v>15458</v>
       </c>
       <c r="E32" t="n">
-        <v>9286</v>
+        <v>18572</v>
       </c>
       <c r="F32" t="n">
-        <v>1705</v>
+        <v>3410</v>
       </c>
       <c r="G32" t="n">
-        <v>18720</v>
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>37440</v>
       </c>
     </row>
     <row r="33">
@@ -1258,16 +1356,19 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>11510</v>
+        <v>23020</v>
       </c>
       <c r="E33" t="n">
-        <v>12189</v>
+        <v>24378</v>
       </c>
       <c r="F33" t="n">
-        <v>2484</v>
+        <v>4968</v>
       </c>
       <c r="G33" t="n">
-        <v>26183</v>
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>52366</v>
       </c>
     </row>
     <row r="34">
@@ -1283,16 +1384,19 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>5386</v>
+        <v>10772</v>
       </c>
       <c r="E34" t="n">
-        <v>6860</v>
+        <v>13720</v>
       </c>
       <c r="F34" t="n">
-        <v>1224</v>
+        <v>2448</v>
       </c>
       <c r="G34" t="n">
-        <v>13470</v>
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>26940</v>
       </c>
     </row>
     <row r="35">
@@ -1308,16 +1412,19 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>2894</v>
+        <v>5788</v>
       </c>
       <c r="E35" t="n">
-        <v>4170</v>
+        <v>8340</v>
       </c>
       <c r="F35" t="n">
-        <v>636</v>
+        <v>1272</v>
       </c>
       <c r="G35" t="n">
-        <v>7700</v>
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>15400</v>
       </c>
     </row>
     <row r="36">
@@ -1333,16 +1440,19 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>576</v>
+        <v>1152</v>
       </c>
       <c r="E36" t="n">
-        <v>1031</v>
+        <v>2062</v>
       </c>
       <c r="F36" t="n">
-        <v>148</v>
+        <v>296</v>
       </c>
       <c r="G36" t="n">
-        <v>1755</v>
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3510</v>
       </c>
     </row>
     <row r="37">
@@ -1358,16 +1468,19 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>332</v>
+        <v>664</v>
       </c>
       <c r="E37" t="n">
-        <v>467</v>
+        <v>934</v>
       </c>
       <c r="F37" t="n">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="G37" t="n">
-        <v>848</v>
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1696</v>
       </c>
     </row>
     <row r="38">
@@ -1383,16 +1496,19 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="E38" t="n">
-        <v>274</v>
+        <v>548</v>
       </c>
       <c r="F38" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G38" t="n">
-        <v>350</v>
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="39">
@@ -1408,16 +1524,19 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>284</v>
+        <v>568</v>
       </c>
       <c r="E39" t="n">
-        <v>337</v>
+        <v>674</v>
       </c>
       <c r="F39" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="G39" t="n">
-        <v>665</v>
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1330</v>
       </c>
     </row>
     <row r="40">
@@ -1433,16 +1552,19 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>532</v>
+        <v>1064</v>
       </c>
       <c r="E40" t="n">
-        <v>998</v>
+        <v>1996</v>
       </c>
       <c r="F40" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="G40" t="n">
-        <v>1680</v>
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3360</v>
       </c>
     </row>
     <row r="41">
@@ -1458,16 +1580,19 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>2725</v>
+        <v>5450</v>
       </c>
       <c r="E41" t="n">
-        <v>4605</v>
+        <v>9210</v>
       </c>
       <c r="F41" t="n">
-        <v>785</v>
+        <v>1570</v>
       </c>
       <c r="G41" t="n">
-        <v>8115</v>
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>16230</v>
       </c>
     </row>
     <row r="42">
@@ -1483,16 +1608,19 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>5254</v>
+        <v>10508</v>
       </c>
       <c r="E42" t="n">
-        <v>6832</v>
+        <v>13664</v>
       </c>
       <c r="F42" t="n">
-        <v>838</v>
+        <v>1676</v>
       </c>
       <c r="G42" t="n">
-        <v>12924</v>
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>25848</v>
       </c>
     </row>
     <row r="43">
@@ -1508,16 +1636,19 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>5836</v>
+        <v>11672</v>
       </c>
       <c r="E43" t="n">
-        <v>8266</v>
+        <v>16532</v>
       </c>
       <c r="F43" t="n">
-        <v>1080</v>
+        <v>2160</v>
       </c>
       <c r="G43" t="n">
-        <v>15182</v>
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>30364</v>
       </c>
     </row>
     <row r="44">
@@ -1533,16 +1664,19 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>8342</v>
+        <v>16684</v>
       </c>
       <c r="E44" t="n">
-        <v>10307</v>
+        <v>20614</v>
       </c>
       <c r="F44" t="n">
-        <v>1507</v>
+        <v>3014</v>
       </c>
       <c r="G44" t="n">
-        <v>20156</v>
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>40312</v>
       </c>
     </row>
     <row r="45">
@@ -1558,16 +1692,19 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>10697</v>
+        <v>21394</v>
       </c>
       <c r="E45" t="n">
-        <v>14026</v>
+        <v>28052</v>
       </c>
       <c r="F45" t="n">
-        <v>2566</v>
+        <v>5132</v>
       </c>
       <c r="G45" t="n">
-        <v>27289</v>
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>54578</v>
       </c>
     </row>
     <row r="46">
@@ -1583,16 +1720,19 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>5517</v>
+        <v>11034</v>
       </c>
       <c r="E46" t="n">
-        <v>8361</v>
+        <v>16722</v>
       </c>
       <c r="F46" t="n">
-        <v>1404</v>
+        <v>2808</v>
       </c>
       <c r="G46" t="n">
-        <v>15282</v>
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>30564</v>
       </c>
     </row>
     <row r="47">
@@ -1617,6 +1757,9 @@
         <v>850</v>
       </c>
       <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
         <v>9443</v>
       </c>
     </row>
@@ -1642,6 +1785,9 @@
         <v>218</v>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
         <v>2496</v>
       </c>
     </row>
@@ -1667,6 +1813,9 @@
         <v>77</v>
       </c>
       <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>795</v>
       </c>
     </row>
@@ -1692,6 +1841,9 @@
         <v>39</v>
       </c>
       <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
         <v>306</v>
       </c>
     </row>
@@ -1717,6 +1869,9 @@
         <v>44</v>
       </c>
       <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
         <v>703</v>
       </c>
     </row>
@@ -1742,6 +1897,9 @@
         <v>579</v>
       </c>
       <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
         <v>5327</v>
       </c>
     </row>
@@ -1767,6 +1925,9 @@
         <v>436</v>
       </c>
       <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
         <v>5648</v>
       </c>
     </row>
@@ -1792,6 +1953,9 @@
         <v>1167</v>
       </c>
       <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
         <v>16001</v>
       </c>
     </row>
@@ -1817,6 +1981,9 @@
         <v>1296</v>
       </c>
       <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
         <v>15904</v>
       </c>
     </row>
@@ -1842,6 +2009,9 @@
         <v>1786</v>
       </c>
       <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
         <v>21066</v>
       </c>
     </row>
@@ -1867,6 +2037,9 @@
         <v>2814</v>
       </c>
       <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
         <v>29996</v>
       </c>
     </row>
@@ -1892,6 +2065,9 @@
         <v>1610</v>
       </c>
       <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
         <v>17378</v>
       </c>
     </row>
@@ -1917,6 +2093,9 @@
         <v>785</v>
       </c>
       <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
         <v>9878</v>
       </c>
     </row>
@@ -1942,6 +2121,9 @@
         <v>193</v>
       </c>
       <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
         <v>2309</v>
       </c>
     </row>
@@ -1967,6 +2149,9 @@
         <v>107</v>
       </c>
       <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
         <v>1085</v>
       </c>
     </row>
@@ -1992,6 +2177,9 @@
         <v>42</v>
       </c>
       <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
         <v>523</v>
       </c>
     </row>
@@ -2017,6 +2205,9 @@
         <v>49</v>
       </c>
       <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
         <v>698</v>
       </c>
     </row>
@@ -2042,6 +2233,9 @@
         <v>213</v>
       </c>
       <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
         <v>1850</v>
       </c>
     </row>
@@ -2067,6 +2261,9 @@
         <v>1098</v>
       </c>
       <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
         <v>10316</v>
       </c>
     </row>
@@ -2092,6 +2289,9 @@
         <v>1275</v>
       </c>
       <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
         <v>16498</v>
       </c>
     </row>
@@ -2117,6 +2317,9 @@
         <v>1561</v>
       </c>
       <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
         <v>19354</v>
       </c>
     </row>
@@ -2142,6 +2345,9 @@
         <v>2423</v>
       </c>
       <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
         <v>26752</v>
       </c>
     </row>
@@ -2167,6 +2373,9 @@
         <v>3462</v>
       </c>
       <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
         <v>35546</v>
       </c>
     </row>
@@ -2192,6 +2401,9 @@
         <v>2072</v>
       </c>
       <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
         <v>20623</v>
       </c>
     </row>
@@ -2217,6 +2429,9 @@
         <v>999</v>
       </c>
       <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
         <v>11731</v>
       </c>
     </row>
@@ -2242,6 +2457,9 @@
         <v>253</v>
       </c>
       <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
         <v>2353</v>
       </c>
     </row>
@@ -2267,6 +2485,9 @@
         <v>87</v>
       </c>
       <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
         <v>1010</v>
       </c>
     </row>
@@ -2292,6 +2513,9 @@
         <v>66</v>
       </c>
       <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
         <v>1188</v>
       </c>
     </row>
@@ -2317,6 +2541,9 @@
         <v>89</v>
       </c>
       <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -2342,6 +2569,9 @@
         <v>311</v>
       </c>
       <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
         <v>5883</v>
       </c>
     </row>
@@ -2367,6 +2597,9 @@
         <v>1344</v>
       </c>
       <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
         <v>19587</v>
       </c>
     </row>
@@ -2392,6 +2625,9 @@
         <v>1378</v>
       </c>
       <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
         <v>28846</v>
       </c>
     </row>
@@ -2417,6 +2653,9 @@
         <v>1780</v>
       </c>
       <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
         <v>33756</v>
       </c>
     </row>
@@ -2442,6 +2681,9 @@
         <v>2408</v>
       </c>
       <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
         <v>42466</v>
       </c>
     </row>
@@ -2467,6 +2709,9 @@
         <v>2910</v>
       </c>
       <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
         <v>61534</v>
       </c>
     </row>
@@ -2492,6 +2737,9 @@
         <v>1821</v>
       </c>
       <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
         <v>36848</v>
       </c>
     </row>
@@ -2517,6 +2765,9 @@
         <v>1070</v>
       </c>
       <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
         <v>26598</v>
       </c>
     </row>
@@ -2542,6 +2793,9 @@
         <v>340</v>
       </c>
       <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
         <v>8075</v>
       </c>
     </row>
@@ -2567,6 +2821,9 @@
         <v>198</v>
       </c>
       <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
         <v>5967</v>
       </c>
     </row>
@@ -2592,6 +2849,9 @@
         <v>47</v>
       </c>
       <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
         <v>644</v>
       </c>
     </row>
@@ -2617,6 +2877,9 @@
         <v>16</v>
       </c>
       <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
         <v>820</v>
       </c>
     </row>
@@ -2642,6 +2905,9 @@
         <v>124</v>
       </c>
       <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
         <v>3023</v>
       </c>
     </row>
@@ -2667,6 +2933,9 @@
         <v>1039</v>
       </c>
       <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
         <v>14154</v>
       </c>
     </row>
@@ -2692,6 +2961,9 @@
         <v>816</v>
       </c>
       <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
         <v>19805</v>
       </c>
     </row>
@@ -2717,6 +2989,9 @@
         <v>1238</v>
       </c>
       <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
         <v>25239</v>
       </c>
     </row>
@@ -2742,6 +3017,9 @@
         <v>2017</v>
       </c>
       <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
         <v>30842</v>
       </c>
     </row>
@@ -2767,6 +3045,9 @@
         <v>2952</v>
       </c>
       <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
         <v>41489</v>
       </c>
     </row>
@@ -2792,6 +3073,9 @@
         <v>1630</v>
       </c>
       <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
         <v>26023</v>
       </c>
     </row>
@@ -2817,6 +3101,9 @@
         <v>1015</v>
       </c>
       <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
         <v>16243</v>
       </c>
     </row>
@@ -2842,6 +3129,9 @@
         <v>242</v>
       </c>
       <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
         <v>3591</v>
       </c>
     </row>
@@ -2867,6 +3157,9 @@
         <v>113</v>
       </c>
       <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
         <v>1498</v>
       </c>
     </row>
@@ -2892,6 +3185,9 @@
         <v>48</v>
       </c>
       <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
         <v>872</v>
       </c>
     </row>
@@ -2917,6 +3213,9 @@
         <v>57</v>
       </c>
       <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
         <v>1305</v>
       </c>
     </row>
@@ -2942,6 +3241,9 @@
         <v>172</v>
       </c>
       <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
         <v>3260</v>
       </c>
     </row>
@@ -2967,6 +3269,9 @@
         <v>1040</v>
       </c>
       <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
         <v>14749</v>
       </c>
     </row>
@@ -2992,6 +3297,9 @@
         <v>1000</v>
       </c>
       <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
         <v>21776</v>
       </c>
     </row>
@@ -3017,6 +3325,9 @@
         <v>1305</v>
       </c>
       <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
         <v>25517</v>
       </c>
     </row>
@@ -3042,6 +3353,9 @@
         <v>2191</v>
       </c>
       <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
         <v>32818</v>
       </c>
     </row>
@@ -3067,6 +3381,9 @@
         <v>3245</v>
       </c>
       <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
         <v>41096</v>
       </c>
     </row>
@@ -3092,6 +3409,9 @@
         <v>1646</v>
       </c>
       <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
         <v>27321</v>
       </c>
     </row>
@@ -3117,6 +3437,9 @@
         <v>826</v>
       </c>
       <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
         <v>18091</v>
       </c>
     </row>
@@ -3142,6 +3465,9 @@
         <v>207</v>
       </c>
       <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
         <v>4170</v>
       </c>
     </row>
@@ -3167,6 +3493,9 @@
         <v>89</v>
       </c>
       <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
         <v>1483</v>
       </c>
     </row>
@@ -3192,6 +3521,9 @@
         <v>57</v>
       </c>
       <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
         <v>806</v>
       </c>
     </row>
@@ -3217,6 +3549,9 @@
         <v>62</v>
       </c>
       <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
         <v>1382</v>
       </c>
     </row>
@@ -3242,6 +3577,9 @@
         <v>515</v>
       </c>
       <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
         <v>7228</v>
       </c>
     </row>
@@ -3267,6 +3605,9 @@
         <v>636</v>
       </c>
       <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
         <v>11532</v>
       </c>
     </row>
@@ -3292,6 +3633,9 @@
         <v>1146</v>
       </c>
       <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
         <v>25205</v>
       </c>
     </row>
@@ -3317,6 +3661,9 @@
         <v>1522</v>
       </c>
       <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
         <v>29374</v>
       </c>
     </row>
@@ -3342,6 +3689,9 @@
         <v>2338</v>
       </c>
       <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
         <v>36559</v>
       </c>
     </row>
@@ -3367,6 +3717,9 @@
         <v>2995</v>
       </c>
       <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
         <v>46726</v>
       </c>
     </row>
@@ -3392,6 +3745,9 @@
         <v>1435</v>
       </c>
       <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
         <v>30894</v>
       </c>
     </row>
@@ -3417,6 +3773,9 @@
         <v>791</v>
       </c>
       <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
         <v>19607</v>
       </c>
     </row>
@@ -3442,6 +3801,9 @@
         <v>218</v>
       </c>
       <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
         <v>4907</v>
       </c>
     </row>
@@ -3467,6 +3829,9 @@
         <v>92</v>
       </c>
       <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
         <v>1659</v>
       </c>
     </row>
@@ -3492,6 +3857,9 @@
         <v>43</v>
       </c>
       <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
         <v>906</v>
       </c>
     </row>
@@ -3517,6 +3885,9 @@
         <v>57</v>
       </c>
       <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
         <v>970</v>
       </c>
     </row>
@@ -3542,6 +3913,9 @@
         <v>182</v>
       </c>
       <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
         <v>3150</v>
       </c>
     </row>
@@ -3567,6 +3941,9 @@
         <v>1082</v>
       </c>
       <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
         <v>17347</v>
       </c>
     </row>
@@ -3592,6 +3969,9 @@
         <v>1602</v>
       </c>
       <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
         <v>27354</v>
       </c>
     </row>
@@ -3617,6 +3997,9 @@
         <v>2095</v>
       </c>
       <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
         <v>33021</v>
       </c>
     </row>
@@ -3642,6 +4025,9 @@
         <v>2975</v>
       </c>
       <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
         <v>39581</v>
       </c>
     </row>
@@ -3667,6 +4053,9 @@
         <v>4131</v>
       </c>
       <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
         <v>51218</v>
       </c>
     </row>
@@ -3692,6 +4081,9 @@
         <v>2422</v>
       </c>
       <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
         <v>34457</v>
       </c>
     </row>
@@ -3717,6 +4109,9 @@
         <v>1401</v>
       </c>
       <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
         <v>23205</v>
       </c>
     </row>
@@ -3742,6 +4137,9 @@
         <v>330</v>
       </c>
       <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
         <v>4803</v>
       </c>
     </row>
@@ -3767,6 +4165,9 @@
         <v>141</v>
       </c>
       <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
         <v>1870</v>
       </c>
     </row>
@@ -3792,6 +4193,9 @@
         <v>126</v>
       </c>
       <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
         <v>1217</v>
       </c>
     </row>
@@ -3817,6 +4221,9 @@
         <v>122</v>
       </c>
       <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
         <v>1544</v>
       </c>
     </row>
@@ -3842,6 +4249,9 @@
         <v>413</v>
       </c>
       <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
         <v>5080</v>
       </c>
     </row>
@@ -3867,6 +4277,9 @@
         <v>1736</v>
       </c>
       <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
         <v>17721</v>
       </c>
     </row>
@@ -3892,6 +4305,9 @@
         <v>2207</v>
       </c>
       <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
         <v>31076</v>
       </c>
     </row>
@@ -3917,6 +4333,9 @@
         <v>2788</v>
       </c>
       <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
         <v>35923</v>
       </c>
     </row>
@@ -3942,6 +4361,9 @@
         <v>3411</v>
       </c>
       <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
         <v>44794</v>
       </c>
     </row>
@@ -3967,6 +4389,9 @@
         <v>5161</v>
       </c>
       <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
         <v>54794</v>
       </c>
     </row>
@@ -3992,6 +4417,9 @@
         <v>3039</v>
       </c>
       <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
         <v>37429</v>
       </c>
     </row>
@@ -4017,6 +4445,9 @@
         <v>1365</v>
       </c>
       <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
         <v>25576</v>
       </c>
     </row>
@@ -4042,6 +4473,9 @@
         <v>317</v>
       </c>
       <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
         <v>5228</v>
       </c>
     </row>
@@ -4067,6 +4501,9 @@
         <v>124</v>
       </c>
       <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
         <v>2062</v>
       </c>
     </row>
@@ -4092,6 +4529,9 @@
         <v>109</v>
       </c>
       <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
         <v>1304</v>
       </c>
     </row>
@@ -4117,6 +4557,9 @@
         <v>134</v>
       </c>
       <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
         <v>1733</v>
       </c>
     </row>
@@ -4142,6 +4585,9 @@
         <v>1061</v>
       </c>
       <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
         <v>11067</v>
       </c>
     </row>
@@ -4167,6 +4613,9 @@
         <v>1131</v>
       </c>
       <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
         <v>15100</v>
       </c>
     </row>
@@ -4192,6 +4641,9 @@
         <v>2144</v>
       </c>
       <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
         <v>32776</v>
       </c>
     </row>
@@ -4217,6 +4669,9 @@
         <v>2778</v>
       </c>
       <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
         <v>39070</v>
       </c>
     </row>
@@ -4242,6 +4697,9 @@
         <v>3714</v>
       </c>
       <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
         <v>45471</v>
       </c>
     </row>
@@ -4267,6 +4725,9 @@
         <v>5272</v>
       </c>
       <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
         <v>53704</v>
       </c>
     </row>
@@ -4292,6 +4753,9 @@
         <v>3518</v>
       </c>
       <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
         <v>40149</v>
       </c>
     </row>
@@ -4317,6 +4781,9 @@
         <v>1745</v>
       </c>
       <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
         <v>28222</v>
       </c>
     </row>
@@ -4342,6 +4809,9 @@
         <v>392</v>
       </c>
       <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
         <v>6394</v>
       </c>
     </row>
@@ -4367,6 +4837,9 @@
         <v>223</v>
       </c>
       <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
         <v>2864</v>
       </c>
     </row>
@@ -4392,6 +4865,9 @@
         <v>110</v>
       </c>
       <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
         <v>1354</v>
       </c>
     </row>
@@ -4417,6 +4893,9 @@
         <v>117</v>
       </c>
       <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
         <v>1696</v>
       </c>
     </row>
@@ -4442,6 +4921,9 @@
         <v>521</v>
       </c>
       <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
         <v>5176</v>
       </c>
     </row>
@@ -4467,6 +4949,9 @@
         <v>2812</v>
       </c>
       <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
         <v>26925</v>
       </c>
     </row>
@@ -4492,6 +4977,9 @@
         <v>2711</v>
       </c>
       <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
         <v>35347</v>
       </c>
     </row>
@@ -4517,6 +5005,9 @@
         <v>3464</v>
       </c>
       <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
         <v>41619</v>
       </c>
     </row>
@@ -4542,6 +5033,9 @@
         <v>4262</v>
       </c>
       <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
         <v>47470</v>
       </c>
     </row>
@@ -4567,6 +5061,9 @@
         <v>6216</v>
       </c>
       <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
         <v>57680</v>
       </c>
     </row>
@@ -4592,6 +5089,9 @@
         <v>3896</v>
       </c>
       <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
         <v>42189</v>
       </c>
     </row>
@@ -4617,6 +5117,9 @@
         <v>2572</v>
       </c>
       <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
         <v>31341</v>
       </c>
     </row>
@@ -4642,6 +5145,9 @@
         <v>551</v>
       </c>
       <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
         <v>7346</v>
       </c>
     </row>
@@ -4667,6 +5173,9 @@
         <v>310</v>
       </c>
       <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
         <v>2893</v>
       </c>
     </row>
@@ -4692,6 +5201,9 @@
         <v>178</v>
       </c>
       <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
         <v>1627</v>
       </c>
     </row>
@@ -4717,6 +5229,9 @@
         <v>161</v>
       </c>
       <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
         <v>2181</v>
       </c>
     </row>
@@ -4742,6 +5257,9 @@
         <v>1037</v>
       </c>
       <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
         <v>11056</v>
       </c>
     </row>
@@ -4767,6 +5285,9 @@
         <v>1913</v>
       </c>
       <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
         <v>22068</v>
       </c>
     </row>
@@ -4792,6 +5313,9 @@
         <v>3178</v>
       </c>
       <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
         <v>40665</v>
       </c>
     </row>
@@ -4817,6 +5341,9 @@
         <v>4333</v>
       </c>
       <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
         <v>45685</v>
       </c>
     </row>
@@ -4842,6 +5369,9 @@
         <v>4826</v>
       </c>
       <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
         <v>50867</v>
       </c>
     </row>
@@ -4867,6 +5397,9 @@
         <v>6434</v>
       </c>
       <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
         <v>60415</v>
       </c>
     </row>
@@ -4892,6 +5425,9 @@
         <v>4562</v>
       </c>
       <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
         <v>47006</v>
       </c>
     </row>
@@ -4917,6 +5453,9 @@
         <v>3131</v>
       </c>
       <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
         <v>35602</v>
       </c>
     </row>
@@ -4942,6 +5481,9 @@
         <v>646</v>
       </c>
       <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
         <v>7651</v>
       </c>
     </row>
@@ -4967,6 +5509,9 @@
         <v>221</v>
       </c>
       <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
         <v>2553</v>
       </c>
     </row>
@@ -4992,6 +5537,9 @@
         <v>149</v>
       </c>
       <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
         <v>1651</v>
       </c>
     </row>
@@ -5017,6 +5565,9 @@
         <v>271</v>
       </c>
       <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
         <v>2119</v>
       </c>
     </row>
@@ -5042,6 +5593,9 @@
         <v>724</v>
       </c>
       <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
         <v>7474</v>
       </c>
     </row>
@@ -5067,6 +5621,9 @@
         <v>3639</v>
       </c>
       <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
         <v>31722</v>
       </c>
     </row>
@@ -5092,6 +5649,9 @@
         <v>5026</v>
       </c>
       <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
         <v>46673</v>
       </c>
     </row>
@@ -5117,6 +5677,9 @@
         <v>5562</v>
       </c>
       <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
         <v>49058</v>
       </c>
     </row>
@@ -5142,6 +5705,9 @@
         <v>5801</v>
       </c>
       <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
         <v>53319</v>
       </c>
     </row>
@@ -5167,6 +5733,9 @@
         <v>7678</v>
       </c>
       <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
         <v>62814</v>
       </c>
     </row>
@@ -5192,6 +5761,9 @@
         <v>4201</v>
       </c>
       <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
         <v>45653</v>
       </c>
     </row>
@@ -5217,6 +5789,9 @@
         <v>3868</v>
       </c>
       <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
         <v>36118</v>
       </c>
     </row>
@@ -5242,6 +5817,9 @@
         <v>944</v>
       </c>
       <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
         <v>8274</v>
       </c>
     </row>
@@ -5267,6 +5845,9 @@
         <v>291</v>
       </c>
       <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
         <v>2710</v>
       </c>
     </row>
@@ -5292,6 +5873,9 @@
         <v>217</v>
       </c>
       <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
         <v>2001</v>
       </c>
     </row>
@@ -5317,6 +5901,9 @@
         <v>378</v>
       </c>
       <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
         <v>3076</v>
       </c>
     </row>
@@ -5342,6 +5929,9 @@
         <v>223</v>
       </c>
       <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
         <v>1948</v>
       </c>
     </row>
@@ -5367,6 +5957,9 @@
         <v>0</v>
       </c>
       <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
         <v>12</v>
       </c>
     </row>
@@ -5392,6 +5985,9 @@
         <v>2092</v>
       </c>
       <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
         <v>9752</v>
       </c>
     </row>
@@ -5417,6 +6013,9 @@
         <v>5086</v>
       </c>
       <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
         <v>19812</v>
       </c>
     </row>
@@ -5442,6 +6041,9 @@
         <v>3027</v>
       </c>
       <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
         <v>10441</v>
       </c>
     </row>
@@ -5467,6 +6069,9 @@
         <v>1891</v>
       </c>
       <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
         <v>6418</v>
       </c>
     </row>
@@ -5492,6 +6097,9 @@
         <v>163</v>
       </c>
       <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
         <v>585</v>
       </c>
     </row>
@@ -5517,6 +6125,9 @@
         <v>19</v>
       </c>
       <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
         <v>99</v>
       </c>
     </row>
@@ -5542,6 +6153,9 @@
         <v>10</v>
       </c>
       <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
         <v>60</v>
       </c>
     </row>
@@ -5567,6 +6181,9 @@
         <v>2</v>
       </c>
       <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5592,6 +6209,9 @@
         <v>51</v>
       </c>
       <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
         <v>194</v>
       </c>
     </row>
@@ -5617,6 +6237,9 @@
         <v>267</v>
       </c>
       <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
         <v>1024</v>
       </c>
     </row>
@@ -5642,6 +6265,9 @@
         <v>1069</v>
       </c>
       <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
         <v>4295</v>
       </c>
     </row>
@@ -5667,6 +6293,9 @@
         <v>3333</v>
       </c>
       <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
         <v>14824</v>
       </c>
     </row>
@@ -5692,6 +6321,9 @@
         <v>6554</v>
       </c>
       <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
         <v>33963</v>
       </c>
     </row>
@@ -5717,6 +6349,9 @@
         <v>8315</v>
       </c>
       <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
         <v>43575</v>
       </c>
     </row>
@@ -5742,6 +6377,9 @@
         <v>7901</v>
       </c>
       <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
         <v>37463</v>
       </c>
     </row>
@@ -5767,6 +6405,9 @@
         <v>6421</v>
       </c>
       <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
         <v>31170</v>
       </c>
     </row>
@@ -5792,6 +6433,9 @@
         <v>1955</v>
       </c>
       <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
         <v>9094</v>
       </c>
     </row>
@@ -5817,6 +6461,9 @@
         <v>287</v>
       </c>
       <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
         <v>1193</v>
       </c>
     </row>
@@ -5842,6 +6489,9 @@
         <v>357</v>
       </c>
       <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
         <v>1617</v>
       </c>
     </row>
@@ -5867,6 +6517,9 @@
         <v>460</v>
       </c>
       <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
         <v>2034</v>
       </c>
     </row>
@@ -5892,6 +6545,9 @@
         <v>1725</v>
       </c>
       <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
         <v>7389</v>
       </c>
     </row>
@@ -5917,6 +6573,9 @@
         <v>8152</v>
       </c>
       <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
         <v>34283</v>
       </c>
     </row>
@@ -5942,6 +6601,9 @@
         <v>10700</v>
       </c>
       <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
         <v>48254</v>
       </c>
     </row>
@@ -5967,6 +6629,9 @@
         <v>13060</v>
       </c>
       <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
         <v>58012</v>
       </c>
     </row>
@@ -5992,6 +6657,9 @@
         <v>14523</v>
       </c>
       <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
         <v>67374</v>
       </c>
     </row>
@@ -6017,6 +6685,9 @@
         <v>18992</v>
       </c>
       <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
         <v>85842</v>
       </c>
     </row>
@@ -6042,6 +6713,9 @@
         <v>16261</v>
       </c>
       <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
         <v>66196</v>
       </c>
     </row>
@@ -6067,7 +6741,66 @@
         <v>12495</v>
       </c>
       <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="n">
         <v>51356</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C226" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D226" t="n">
+        <v>3265</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4942</v>
+      </c>
+      <c r="F226" t="n">
+        <v>3076</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>11283</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C227" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1340</v>
+      </c>
+      <c r="E227" t="n">
+        <v>2447</v>
+      </c>
+      <c r="F227" t="n">
+        <v>895</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="n">
+        <v>4683</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel_Wide/camino_motives_wide.xlsx
+++ b/Data/Excel_Wide/camino_motives_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,19 +488,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>976</v>
+        <v>488</v>
       </c>
       <c r="E2" t="n">
-        <v>248</v>
+        <v>124</v>
       </c>
       <c r="F2" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1286</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3">
@@ -516,19 +516,19 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2180</v>
+        <v>1090</v>
       </c>
       <c r="E3" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F3" t="n">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2802</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="4">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>4438</v>
+        <v>2219</v>
       </c>
       <c r="E4" t="n">
-        <v>1378</v>
+        <v>689</v>
       </c>
       <c r="F4" t="n">
-        <v>394</v>
+        <v>197</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6210</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="5">
@@ -572,19 +572,19 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>22400</v>
+        <v>11200</v>
       </c>
       <c r="E5" t="n">
-        <v>6224</v>
+        <v>3112</v>
       </c>
       <c r="F5" t="n">
-        <v>2484</v>
+        <v>1242</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>31108</v>
+        <v>15554</v>
       </c>
     </row>
     <row r="6">
@@ -600,19 +600,19 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>24810</v>
+        <v>12405</v>
       </c>
       <c r="E6" t="n">
-        <v>6756</v>
+        <v>3378</v>
       </c>
       <c r="F6" t="n">
-        <v>2154</v>
+        <v>1077</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>33720</v>
+        <v>16860</v>
       </c>
     </row>
     <row r="7">
@@ -628,19 +628,19 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>28758</v>
+        <v>14379</v>
       </c>
       <c r="E7" t="n">
-        <v>7904</v>
+        <v>3952</v>
       </c>
       <c r="F7" t="n">
-        <v>1928</v>
+        <v>964</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>38590</v>
+        <v>19295</v>
       </c>
     </row>
     <row r="8">
@@ -656,19 +656,19 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>47520</v>
+        <v>23760</v>
       </c>
       <c r="E8" t="n">
-        <v>12804</v>
+        <v>6402</v>
       </c>
       <c r="F8" t="n">
-        <v>3458</v>
+        <v>1729</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>63782</v>
+        <v>31891</v>
       </c>
     </row>
     <row r="9">
@@ -684,19 +684,19 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>71836</v>
+        <v>35918</v>
       </c>
       <c r="E9" t="n">
-        <v>14986</v>
+        <v>7493</v>
       </c>
       <c r="F9" t="n">
-        <v>4380</v>
+        <v>2190</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>91202</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="10">
@@ -712,19 +712,19 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>31916</v>
+        <v>15958</v>
       </c>
       <c r="E10" t="n">
-        <v>10856</v>
+        <v>5428</v>
       </c>
       <c r="F10" t="n">
-        <v>2732</v>
+        <v>1366</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>45504</v>
+        <v>22752</v>
       </c>
     </row>
     <row r="11">
@@ -740,19 +740,19 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>21568</v>
+        <v>10784</v>
       </c>
       <c r="E11" t="n">
-        <v>5864</v>
+        <v>2932</v>
       </c>
       <c r="F11" t="n">
-        <v>1680</v>
+        <v>840</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>29112</v>
+        <v>14556</v>
       </c>
     </row>
     <row r="12">
@@ -768,19 +768,19 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>6478</v>
+        <v>3239</v>
       </c>
       <c r="E12" t="n">
-        <v>1914</v>
+        <v>957</v>
       </c>
       <c r="F12" t="n">
-        <v>428</v>
+        <v>214</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>8820</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="13">
@@ -796,19 +796,19 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>5638</v>
+        <v>2819</v>
       </c>
       <c r="E13" t="n">
-        <v>1616</v>
+        <v>808</v>
       </c>
       <c r="F13" t="n">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>7604</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="14">
@@ -824,19 +824,19 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="E14" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F14" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>538</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
@@ -852,19 +852,19 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>920</v>
+        <v>460</v>
       </c>
       <c r="E15" t="n">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="F15" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1130</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16">
@@ -880,19 +880,19 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>2562</v>
+        <v>1281</v>
       </c>
       <c r="E16" t="n">
-        <v>3020</v>
+        <v>1510</v>
       </c>
       <c r="F16" t="n">
-        <v>660</v>
+        <v>330</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>6242</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="17">
@@ -908,19 +908,19 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>2530</v>
+        <v>1265</v>
       </c>
       <c r="E17" t="n">
-        <v>3510</v>
+        <v>1755</v>
       </c>
       <c r="F17" t="n">
-        <v>574</v>
+        <v>287</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6614</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="18">
@@ -936,19 +936,19 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>7450</v>
+        <v>3725</v>
       </c>
       <c r="E18" t="n">
-        <v>9594</v>
+        <v>4797</v>
       </c>
       <c r="F18" t="n">
-        <v>1576</v>
+        <v>788</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>18620</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="19">
@@ -964,19 +964,19 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>10014</v>
+        <v>5007</v>
       </c>
       <c r="E19" t="n">
-        <v>13504</v>
+        <v>6752</v>
       </c>
       <c r="F19" t="n">
-        <v>1720</v>
+        <v>860</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>25238</v>
+        <v>12619</v>
       </c>
     </row>
     <row r="20">
@@ -992,19 +992,19 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>14770</v>
+        <v>7385</v>
       </c>
       <c r="E20" t="n">
-        <v>19390</v>
+        <v>9695</v>
       </c>
       <c r="F20" t="n">
-        <v>3448</v>
+        <v>1724</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>37608</v>
+        <v>18804</v>
       </c>
     </row>
     <row r="21">
@@ -1020,19 +1020,19 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>18628</v>
+        <v>9314</v>
       </c>
       <c r="E21" t="n">
-        <v>26158</v>
+        <v>13079</v>
       </c>
       <c r="F21" t="n">
-        <v>4876</v>
+        <v>2438</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>49662</v>
+        <v>24831</v>
       </c>
     </row>
     <row r="22">
@@ -1048,19 +1048,19 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>7898</v>
+        <v>3949</v>
       </c>
       <c r="E22" t="n">
-        <v>13828</v>
+        <v>6914</v>
       </c>
       <c r="F22" t="n">
-        <v>2610</v>
+        <v>1305</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24336</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="23">
@@ -1076,19 +1076,19 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>4618</v>
+        <v>2309</v>
       </c>
       <c r="E23" t="n">
-        <v>8060</v>
+        <v>4030</v>
       </c>
       <c r="F23" t="n">
-        <v>1068</v>
+        <v>534</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>13746</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="24">
@@ -1104,19 +1104,19 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>654</v>
+        <v>327</v>
       </c>
       <c r="E24" t="n">
-        <v>1876</v>
+        <v>938</v>
       </c>
       <c r="F24" t="n">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2776</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="25">
@@ -1132,19 +1132,19 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>492</v>
+        <v>246</v>
       </c>
       <c r="E25" t="n">
-        <v>734</v>
+        <v>367</v>
       </c>
       <c r="F25" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1336</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26">
@@ -1160,19 +1160,19 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="E26" t="n">
-        <v>382</v>
+        <v>191</v>
       </c>
       <c r="F26" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>648</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27">
@@ -1188,19 +1188,19 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="E27" t="n">
-        <v>378</v>
+        <v>189</v>
       </c>
       <c r="F27" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>702</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28">
@@ -1216,19 +1216,19 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>822</v>
+        <v>411</v>
       </c>
       <c r="E28" t="n">
-        <v>1188</v>
+        <v>594</v>
       </c>
       <c r="F28" t="n">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2192</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="29">
@@ -1244,19 +1244,19 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>6042</v>
+        <v>3021</v>
       </c>
       <c r="E29" t="n">
-        <v>7420</v>
+        <v>3710</v>
       </c>
       <c r="F29" t="n">
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>14902</v>
+        <v>7451</v>
       </c>
     </row>
     <row r="30">
@@ -1272,19 +1272,19 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8722</v>
+        <v>4361</v>
       </c>
       <c r="E30" t="n">
-        <v>10114</v>
+        <v>5057</v>
       </c>
       <c r="F30" t="n">
-        <v>1458</v>
+        <v>729</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>20294</v>
+        <v>10147</v>
       </c>
     </row>
     <row r="31">
@@ -1300,19 +1300,19 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>11318</v>
+        <v>5659</v>
       </c>
       <c r="E31" t="n">
-        <v>12578</v>
+        <v>6289</v>
       </c>
       <c r="F31" t="n">
-        <v>2126</v>
+        <v>1063</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>26022</v>
+        <v>13011</v>
       </c>
     </row>
     <row r="32">
@@ -1328,19 +1328,19 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>15458</v>
+        <v>7729</v>
       </c>
       <c r="E32" t="n">
-        <v>18572</v>
+        <v>9286</v>
       </c>
       <c r="F32" t="n">
-        <v>3410</v>
+        <v>1705</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>37440</v>
+        <v>18720</v>
       </c>
     </row>
     <row r="33">
@@ -1356,19 +1356,19 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>23020</v>
+        <v>11510</v>
       </c>
       <c r="E33" t="n">
-        <v>24378</v>
+        <v>12189</v>
       </c>
       <c r="F33" t="n">
-        <v>4968</v>
+        <v>2484</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>52366</v>
+        <v>26183</v>
       </c>
     </row>
     <row r="34">
@@ -1384,19 +1384,19 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>10772</v>
+        <v>5386</v>
       </c>
       <c r="E34" t="n">
-        <v>13720</v>
+        <v>6860</v>
       </c>
       <c r="F34" t="n">
-        <v>2448</v>
+        <v>1224</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>26940</v>
+        <v>13470</v>
       </c>
     </row>
     <row r="35">
@@ -1412,19 +1412,19 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>5788</v>
+        <v>2894</v>
       </c>
       <c r="E35" t="n">
-        <v>8340</v>
+        <v>4170</v>
       </c>
       <c r="F35" t="n">
-        <v>1272</v>
+        <v>636</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>15400</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="36">
@@ -1440,19 +1440,19 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>1152</v>
+        <v>576</v>
       </c>
       <c r="E36" t="n">
-        <v>2062</v>
+        <v>1031</v>
       </c>
       <c r="F36" t="n">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>3510</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="37">
@@ -1468,19 +1468,19 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>664</v>
+        <v>332</v>
       </c>
       <c r="E37" t="n">
-        <v>934</v>
+        <v>467</v>
       </c>
       <c r="F37" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1696</v>
+        <v>848</v>
       </c>
     </row>
     <row r="38">
@@ -1496,19 +1496,19 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="E38" t="n">
-        <v>548</v>
+        <v>274</v>
       </c>
       <c r="F38" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
@@ -1524,19 +1524,19 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>568</v>
+        <v>284</v>
       </c>
       <c r="E39" t="n">
-        <v>674</v>
+        <v>337</v>
       </c>
       <c r="F39" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1330</v>
+        <v>665</v>
       </c>
     </row>
     <row r="40">
@@ -1552,19 +1552,19 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>1064</v>
+        <v>532</v>
       </c>
       <c r="E40" t="n">
-        <v>1996</v>
+        <v>998</v>
       </c>
       <c r="F40" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>3360</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="41">
@@ -1580,19 +1580,19 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>5450</v>
+        <v>2725</v>
       </c>
       <c r="E41" t="n">
-        <v>9210</v>
+        <v>4605</v>
       </c>
       <c r="F41" t="n">
-        <v>1570</v>
+        <v>785</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>16230</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="42">
@@ -1608,19 +1608,19 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>10508</v>
+        <v>5254</v>
       </c>
       <c r="E42" t="n">
-        <v>13664</v>
+        <v>6832</v>
       </c>
       <c r="F42" t="n">
-        <v>1676</v>
+        <v>838</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>25848</v>
+        <v>12924</v>
       </c>
     </row>
     <row r="43">
@@ -1636,19 +1636,19 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>11672</v>
+        <v>5836</v>
       </c>
       <c r="E43" t="n">
-        <v>16532</v>
+        <v>8266</v>
       </c>
       <c r="F43" t="n">
-        <v>2160</v>
+        <v>1080</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>30364</v>
+        <v>15182</v>
       </c>
     </row>
     <row r="44">
@@ -1664,19 +1664,19 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>16684</v>
+        <v>8342</v>
       </c>
       <c r="E44" t="n">
-        <v>20614</v>
+        <v>10307</v>
       </c>
       <c r="F44" t="n">
-        <v>3014</v>
+        <v>1507</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>40312</v>
+        <v>20156</v>
       </c>
     </row>
     <row r="45">
@@ -1692,19 +1692,19 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>21394</v>
+        <v>10697</v>
       </c>
       <c r="E45" t="n">
-        <v>28052</v>
+        <v>14026</v>
       </c>
       <c r="F45" t="n">
-        <v>5132</v>
+        <v>2566</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>54578</v>
+        <v>27289</v>
       </c>
     </row>
     <row r="46">
@@ -1720,19 +1720,19 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>11034</v>
+        <v>5517</v>
       </c>
       <c r="E46" t="n">
-        <v>16722</v>
+        <v>8361</v>
       </c>
       <c r="F46" t="n">
-        <v>2808</v>
+        <v>1404</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>30564</v>
+        <v>15282</v>
       </c>
     </row>
     <row r="47">
@@ -6801,6 +6801,34 @@
       </c>
       <c r="H227" t="n">
         <v>4683</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>356</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1258</v>
+      </c>
+      <c r="F228" t="n">
+        <v>414</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>2028</v>
       </c>
     </row>
   </sheetData>
